--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2430.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2430.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.025946951236915</v>
+        <v>0.6122863292694092</v>
       </c>
       <c r="B1">
-        <v>2.081269008704528</v>
+        <v>2.655575513839722</v>
       </c>
       <c r="C1">
-        <v>8.958651019212912</v>
+        <v>3.222060441970825</v>
       </c>
       <c r="D1">
-        <v>2.374715548865848</v>
+        <v>3.761053562164307</v>
       </c>
       <c r="E1">
-        <v>0.9920787052923654</v>
+        <v>0.9502931833267212</v>
       </c>
     </row>
   </sheetData>
